--- a/flywest講師用_資料/課題.xlsx
+++ b/flywest講師用_資料/課題.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\flywest講師用_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647227BE-B61C-4C14-96CB-8122F5A1C41A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7320A3-D55A-4CDE-8D97-0293F4EF0D7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7116" yWindow="2124" windowWidth="34080" windowHeight="19248" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7908" yWindow="1488" windowWidth="34080" windowHeight="22896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="HTMLをWordpress化" sheetId="5" r:id="rId2"/>
-    <sheet name="BMI作成問題" sheetId="2" r:id="rId3"/>
+    <sheet name="BMI作成問題4" sheetId="2" r:id="rId3"/>
     <sheet name="お問い合わせフォーム" sheetId="3" r:id="rId4"/>
     <sheet name="掲示板作成問題" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -1202,15 +1202,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1220,15 +1214,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1265,15 +1250,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1298,13 +1295,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>167641</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1996,15 +1993,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="3.19921875" style="4"/>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="28.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2012,566 +2009,525 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="1">
         <v>24</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
     </row>
     <row r="29" spans="2:18" ht="19.8">
-      <c r="B29" s="5"/>
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="C7:J7"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="K4:R4"/>
     <mergeCell ref="C5:J5"/>
@@ -2579,6 +2535,47 @@
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="K6:R6"/>
     <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2587,119 +2584,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D42E1-BC3E-4189-84C0-7080999F8286}">
-  <dimension ref="A4:F72"/>
+  <dimension ref="A2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="4"/>
-    <col min="2" max="2" width="10.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="10.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+    </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="4" t="s">
-        <v>153</v>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="1" t="s">
-        <v>154</v>
+      <c r="B8" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="4" t="s">
-        <v>161</v>
+      <c r="B9" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="4" t="s">
-        <v>155</v>
+      <c r="B10" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="4" t="s">
-        <v>162</v>
+      <c r="B11" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="4" t="s">
-        <v>157</v>
+      <c r="B12" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="4" t="s">
-        <v>158</v>
+      <c r="B13" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>163</v>
       </c>
     </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="4" t="s">
-        <v>164</v>
+      <c r="B25" s="24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="30" t="s">
-        <v>165</v>
+      <c r="C27" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="C31" s="32" t="s">
+      <c r="C29" s="26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="26" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="26" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2710,35 +2707,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCABA156-C38C-4CED-B95E-446A8C574CDC}">
-  <dimension ref="A5:F198"/>
+  <dimension ref="A5:F192"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="7"/>
-    <col min="2" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="2" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C37"/>
@@ -2747,7 +2746,7 @@
       <c r="F37"/>
     </row>
     <row r="38" spans="1:6" ht="18.600000000000001" thickBot="1">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C38"/>
@@ -2756,16 +2755,16 @@
       <c r="F38"/>
     </row>
     <row r="39" spans="1:6" ht="18.600000000000001" thickBot="1">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C40"/>
@@ -2774,7 +2773,7 @@
       <c r="F40"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C41"/>
@@ -2783,7 +2782,7 @@
       <c r="F41"/>
     </row>
     <row r="42" spans="1:6" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C42"/>
@@ -2792,696 +2791,681 @@
       <c r="F42"/>
     </row>
     <row r="43" spans="1:6" ht="18.600000000000001" thickBot="1">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F43"/>
     </row>
     <row r="44" spans="1:6" ht="18.600000000000001" thickBot="1">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F44"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="23" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="23" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="29"/>
-    </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="28"/>
+      <c r="A66" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="28"/>
+      <c r="B67" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="28"/>
+      <c r="B68" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="28"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="B74" s="18" t="s">
-        <v>21</v>
+      <c r="B69" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="B75" s="18" t="s">
-        <v>22</v>
+      <c r="B75" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="B76" s="18" t="s">
-        <v>23</v>
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="19" t="s">
-        <v>24</v>
+      <c r="B81" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82"/>
+      <c r="B82" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="19" t="s">
-        <v>25</v>
+      <c r="B83" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="19" t="s">
-        <v>26</v>
+      <c r="B85" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="19" t="s">
-        <v>27</v>
+      <c r="B86" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="20" t="s">
-        <v>28</v>
+      <c r="B87" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="20" t="s">
-        <v>29</v>
+      <c r="B88" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="19" t="s">
-        <v>30</v>
+      <c r="B89" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="19" t="s">
-        <v>31</v>
+      <c r="B91" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="B92"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="B93" s="16"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="19" t="s">
-        <v>34</v>
+      <c r="B94" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="B95"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96"/>
+      <c r="B96" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="19" t="s">
-        <v>36</v>
+      <c r="B97" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98"/>
+      <c r="B98" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="21"/>
+      <c r="B99" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="20" t="s">
-        <v>37</v>
+      <c r="B100" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101"/>
+      <c r="B101" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="20" t="s">
-        <v>39</v>
+      <c r="B103" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="B111"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="19" t="s">
-        <v>43</v>
+      <c r="B112" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="19" t="s">
-        <v>38</v>
+      <c r="B113" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="19" t="s">
-        <v>38</v>
+      <c r="B114" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="B115"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="B116" s="14"/>
     </row>
     <row r="117" spans="2:2">
       <c r="B117"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="19" t="s">
-        <v>45</v>
+      <c r="B118" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="B119"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="19" t="s">
-        <v>47</v>
+      <c r="B120" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121"/>
+      <c r="B121" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="19"/>
+      <c r="B122" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123"/>
+      <c r="B123" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="19" t="s">
-        <v>48</v>
+      <c r="B124" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125"/>
+      <c r="B125" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="20" t="s">
-        <v>32</v>
+      <c r="B126" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="B127"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="19" t="s">
-        <v>50</v>
+      <c r="B128" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="19" t="s">
-        <v>51</v>
+      <c r="B129" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="19" t="s">
-        <v>52</v>
+      <c r="B130" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="B131"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="19" t="s">
-        <v>54</v>
+      <c r="B132" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="19" t="s">
-        <v>55</v>
+      <c r="B134" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="B135"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="19" t="s">
-        <v>54</v>
+      <c r="B136" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137"/>
+      <c r="B137" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="19" t="s">
-        <v>57</v>
+      <c r="B138" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139"/>
+      <c r="B139" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="19" t="s">
-        <v>25</v>
+      <c r="B140" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141"/>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="19" t="s">
-        <v>26</v>
+      <c r="B142" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="19" t="s">
-        <v>27</v>
+      <c r="B143" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="20" t="s">
-        <v>28</v>
+      <c r="B144" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="20" t="s">
-        <v>29</v>
+      <c r="B145" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="19" t="s">
-        <v>30</v>
+      <c r="B146" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="19" t="s">
-        <v>31</v>
+      <c r="B148" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="20" t="s">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="19" t="s">
-        <v>58</v>
+      <c r="B151" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="B152"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153"/>
+      <c r="B153" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="B154"/>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155"/>
+      <c r="B155" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="B156"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="19" t="s">
-        <v>143</v>
+      <c r="B157" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158"/>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="19" t="s">
-        <v>59</v>
+      <c r="B159" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160"/>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="19" t="s">
-        <v>60</v>
+      <c r="B161" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162"/>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="19" t="s">
-        <v>61</v>
+      <c r="B163" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164"/>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="20" t="s">
-        <v>62</v>
+      <c r="B165" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166"/>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="19" t="s">
-        <v>54</v>
+      <c r="B167" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168"/>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="20" t="s">
-        <v>63</v>
+      <c r="B169" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170"/>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="19" t="s">
-        <v>64</v>
+      <c r="B171" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172"/>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="20" t="s">
-        <v>65</v>
+      <c r="B173" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174"/>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="19" t="s">
-        <v>66</v>
+      <c r="B175" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176"/>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="19" t="s">
-        <v>61</v>
+      <c r="B177" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="19" t="s">
-        <v>67</v>
+      <c r="B179" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="19" t="s">
+      <c r="B181" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="14" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182"/>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="19" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="19" t="s">
-        <v>69</v>
+      <c r="B185" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186"/>
+      <c r="B186" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="20" t="s">
-        <v>70</v>
+      <c r="B187" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="19" t="s">
-        <v>71</v>
+      <c r="B188" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="B189"/>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190"/>
+      <c r="B190" s="16"/>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="19" t="s">
-        <v>72</v>
+      <c r="B191" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195"/>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="21"/>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="19" t="s">
+      <c r="B192" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3491,26 +3475,26 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B74" r:id="rId1" xr:uid="{2660CABE-F06B-4F33-9206-A974CAEEB675}"/>
-    <hyperlink ref="B75" r:id="rId2" xr:uid="{F4DF1606-0959-4827-B5B7-A5ED0A9B7172}"/>
-    <hyperlink ref="B76" r:id="rId3" xr:uid="{142412D2-895A-4540-A2A5-B8C7F498809F}"/>
-    <hyperlink ref="B87" r:id="rId4" display="http://d.hatena.ne.jp/keyword/UTF-8" xr:uid="{C83DA97E-717A-4DC0-B788-CB758B256126}"/>
-    <hyperlink ref="B88" r:id="rId5" display="http://d.hatena.ne.jp/keyword/BMI" xr:uid="{F9F86D07-E338-416E-BC2B-432625DA18A7}"/>
-    <hyperlink ref="B92" r:id="rId6" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{148E3931-04FA-42BD-9BA1-ED393E56BE5E}"/>
-    <hyperlink ref="B100" r:id="rId7" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{D5C562CC-DE90-42F0-BAEB-4D0E2CDC54D7}"/>
-    <hyperlink ref="B103" r:id="rId8" display="http://d.hatena.ne.jp/keyword/BMI" xr:uid="{CC1E2E98-9032-48B0-99D9-13CFE80F2C87}"/>
-    <hyperlink ref="B126" r:id="rId9" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{A9DF0293-3DED-4694-A7EE-D9C7C9E7C0E6}"/>
-    <hyperlink ref="B127" r:id="rId10" display="http://d.hatena.ne.jp/keyword/bmi" xr:uid="{F033C6C0-5C42-4CDF-A4EB-47921D2A0D3F}"/>
-    <hyperlink ref="B135" r:id="rId11" display="http://d.hatena.ne.jp/keyword/UTF-8" xr:uid="{64DCBBAF-CBDB-4297-8710-3C77E28E0228}"/>
-    <hyperlink ref="B144" r:id="rId12" display="http://d.hatena.ne.jp/keyword/UTF-8" xr:uid="{8B69FDB1-888D-4484-A13E-41EDDD20E41D}"/>
-    <hyperlink ref="B145" r:id="rId13" display="http://d.hatena.ne.jp/keyword/BMI" xr:uid="{F90D7780-B8F3-4391-A722-4F247DEFFCA1}"/>
-    <hyperlink ref="B149" r:id="rId14" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{24765929-F33A-48A6-BF22-B786F44241EF}"/>
-    <hyperlink ref="B156" r:id="rId15" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{B2DA762C-1D27-42BC-978A-427C96903C3D}"/>
-    <hyperlink ref="B165" r:id="rId16" display="http://d.hatena.ne.jp/keyword/BMI" xr:uid="{2B20557D-6145-4896-9ADC-48E6B78E189C}"/>
-    <hyperlink ref="B169" r:id="rId17" display="http://d.hatena.ne.jp/keyword/bmi" xr:uid="{5AC3CA42-98A5-4E86-A62A-22BD887CCD17}"/>
-    <hyperlink ref="B173" r:id="rId18" display="http://d.hatena.ne.jp/keyword/bmi" xr:uid="{9DF0E518-1CF8-485B-9935-68E7B8599B85}"/>
-    <hyperlink ref="B187" r:id="rId19" display="http://d.hatena.ne.jp/keyword/HTTP_REFERER" xr:uid="{428E9582-021D-4C13-BCE8-93078F1E69AE}"/>
-    <hyperlink ref="B192" r:id="rId20" display="http://d.hatena.ne.jp/keyword/HTTP_REFERER" xr:uid="{89BFC782-8F46-4EF3-8C31-A8E7319E225C}"/>
+    <hyperlink ref="B68" r:id="rId1" xr:uid="{2660CABE-F06B-4F33-9206-A974CAEEB675}"/>
+    <hyperlink ref="B69" r:id="rId2" xr:uid="{F4DF1606-0959-4827-B5B7-A5ED0A9B7172}"/>
+    <hyperlink ref="B70" r:id="rId3" xr:uid="{142412D2-895A-4540-A2A5-B8C7F498809F}"/>
+    <hyperlink ref="B81" r:id="rId4" display="http://d.hatena.ne.jp/keyword/UTF-8" xr:uid="{C83DA97E-717A-4DC0-B788-CB758B256126}"/>
+    <hyperlink ref="B82" r:id="rId5" display="http://d.hatena.ne.jp/keyword/BMI" xr:uid="{F9F86D07-E338-416E-BC2B-432625DA18A7}"/>
+    <hyperlink ref="B86" r:id="rId6" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{148E3931-04FA-42BD-9BA1-ED393E56BE5E}"/>
+    <hyperlink ref="B94" r:id="rId7" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{D5C562CC-DE90-42F0-BAEB-4D0E2CDC54D7}"/>
+    <hyperlink ref="B97" r:id="rId8" display="http://d.hatena.ne.jp/keyword/BMI" xr:uid="{CC1E2E98-9032-48B0-99D9-13CFE80F2C87}"/>
+    <hyperlink ref="B120" r:id="rId9" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{A9DF0293-3DED-4694-A7EE-D9C7C9E7C0E6}"/>
+    <hyperlink ref="B121" r:id="rId10" display="http://d.hatena.ne.jp/keyword/bmi" xr:uid="{F033C6C0-5C42-4CDF-A4EB-47921D2A0D3F}"/>
+    <hyperlink ref="B129" r:id="rId11" display="http://d.hatena.ne.jp/keyword/UTF-8" xr:uid="{64DCBBAF-CBDB-4297-8710-3C77E28E0228}"/>
+    <hyperlink ref="B138" r:id="rId12" display="http://d.hatena.ne.jp/keyword/UTF-8" xr:uid="{8B69FDB1-888D-4484-A13E-41EDDD20E41D}"/>
+    <hyperlink ref="B139" r:id="rId13" display="http://d.hatena.ne.jp/keyword/BMI" xr:uid="{F90D7780-B8F3-4391-A722-4F247DEFFCA1}"/>
+    <hyperlink ref="B143" r:id="rId14" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{24765929-F33A-48A6-BF22-B786F44241EF}"/>
+    <hyperlink ref="B150" r:id="rId15" display="http://d.hatena.ne.jp/keyword/php" xr:uid="{B2DA762C-1D27-42BC-978A-427C96903C3D}"/>
+    <hyperlink ref="B159" r:id="rId16" display="http://d.hatena.ne.jp/keyword/BMI" xr:uid="{2B20557D-6145-4896-9ADC-48E6B78E189C}"/>
+    <hyperlink ref="B163" r:id="rId17" display="http://d.hatena.ne.jp/keyword/bmi" xr:uid="{5AC3CA42-98A5-4E86-A62A-22BD887CCD17}"/>
+    <hyperlink ref="B167" r:id="rId18" display="http://d.hatena.ne.jp/keyword/bmi" xr:uid="{9DF0E518-1CF8-485B-9935-68E7B8599B85}"/>
+    <hyperlink ref="B181" r:id="rId19" display="http://d.hatena.ne.jp/keyword/HTTP_REFERER" xr:uid="{428E9582-021D-4C13-BCE8-93078F1E69AE}"/>
+    <hyperlink ref="B186" r:id="rId20" display="http://d.hatena.ne.jp/keyword/HTTP_REFERER" xr:uid="{89BFC782-8F46-4EF3-8C31-A8E7319E225C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId21"/>
@@ -3525,146 +3509,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="22"/>
-    <col min="2" max="16384" width="8.796875" style="23"/>
+    <col min="1" max="1" width="8.796875" style="17"/>
+    <col min="2" max="16384" width="8.796875" style="18"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:3" s="2" customFormat="1">
+      <c r="A32" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-    </row>
-    <row r="33" spans="1:1" s="4" customFormat="1">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1" s="4" customFormat="1">
-      <c r="A34" s="29" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:1" s="2" customFormat="1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" s="2" customFormat="1">
+      <c r="A34" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="4" customFormat="1">
-      <c r="A35" s="29" t="s">
+    <row r="35" spans="1:1" s="2" customFormat="1">
+      <c r="A35" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="4" customFormat="1">
-      <c r="A36" s="29" t="s">
+    <row r="36" spans="1:1" s="2" customFormat="1">
+      <c r="A36" s="23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="4" customFormat="1">
-      <c r="A37" s="29" t="s">
+    <row r="37" spans="1:1" s="2" customFormat="1">
+      <c r="A37" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="4" customFormat="1">
-      <c r="A38" s="29" t="s">
+    <row r="38" spans="1:1" s="2" customFormat="1">
+      <c r="A38" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="4" customFormat="1">
-      <c r="A39" s="29" t="s">
+    <row r="39" spans="1:1" s="2" customFormat="1">
+      <c r="A39" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="4" customFormat="1">
-      <c r="A40" s="29" t="s">
+    <row r="40" spans="1:1" s="2" customFormat="1">
+      <c r="A40" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="4" customFormat="1">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:1" s="2" customFormat="1">
+      <c r="A41" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="4" customFormat="1">
-      <c r="A42" s="29" t="s">
+    <row r="42" spans="1:1" s="2" customFormat="1">
+      <c r="A42" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="4" customFormat="1">
-      <c r="A43" s="29" t="s">
+    <row r="43" spans="1:1" s="2" customFormat="1">
+      <c r="A43" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="4" customFormat="1">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:1" s="2" customFormat="1">
+      <c r="A44" s="23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="4" customFormat="1">
-      <c r="A45" s="29" t="s">
+    <row r="45" spans="1:1" s="2" customFormat="1">
+      <c r="A45" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="4" customFormat="1">
-      <c r="A46" s="29" t="s">
+    <row r="46" spans="1:1" s="2" customFormat="1">
+      <c r="A46" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="4" customFormat="1">
-      <c r="A47" s="29" t="s">
+    <row r="47" spans="1:1" s="2" customFormat="1">
+      <c r="A47" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="4" customFormat="1">
-      <c r="A48" s="29" t="s">
+    <row r="48" spans="1:1" s="2" customFormat="1">
+      <c r="A48" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3682,472 +3666,473 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D8CB19-8E82-49ED-912E-D023A62A196B}">
   <dimension ref="A4:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="7"/>
-    <col min="2" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="2" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="26" t="s">
+      <c r="A115" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="29" t="s">
+      <c r="A119" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="29" t="s">
+      <c r="A122" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="23" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="29" t="s">
+      <c r="A125" s="23" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="23" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="29" t="s">
+      <c r="A130" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="A134" s="26" t="s">
+      <c r="A134" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
     </row>
     <row r="135" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B135" s="24" t="s">
+      <c r="B135" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B136" s="24" t="s">
+      <c r="B136" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B138" s="25"/>
+      <c r="B138" s="20"/>
     </row>
     <row r="139" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B140" s="25"/>
+      <c r="B140" s="20"/>
     </row>
     <row r="141" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B142" s="24" t="s">
+      <c r="B142" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B143" s="24" t="s">
+      <c r="B143" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="18.600000000000001" thickBot="1">
-      <c r="B144" s="24" t="s">
+      <c r="B144" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B145" s="24" t="s">
+      <c r="B145" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B146" s="24" t="s">
+      <c r="B146" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B147" s="25"/>
+      <c r="B147" s="20"/>
     </row>
     <row r="148" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B148" s="24" t="s">
+      <c r="B148" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B149" s="25"/>
+      <c r="B149" s="20"/>
     </row>
     <row r="150" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B150" s="24" t="s">
+      <c r="B150" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B151" s="24" t="s">
+      <c r="B151" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B153" s="25"/>
+      <c r="B153" s="20"/>
     </row>
     <row r="154" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B154" s="24" t="s">
+      <c r="B154" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="155" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B155" s="25"/>
+      <c r="B155" s="20"/>
     </row>
     <row r="156" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B156" s="24" t="s">
+      <c r="B156" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B158" s="25"/>
+      <c r="B158" s="20"/>
     </row>
     <row r="159" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B159" s="24" t="s">
+      <c r="B159" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="160" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B160" s="25"/>
+      <c r="B160" s="20"/>
     </row>
     <row r="161" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B161" s="24" t="s">
+      <c r="B161" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B162" s="24" t="s">
+      <c r="B162" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B163" s="24" t="s">
+      <c r="B163" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B164" s="24" t="s">
+      <c r="B164" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B165" s="24" t="s">
+      <c r="B165" s="19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B166" s="24" t="s">
+      <c r="B166" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B167" s="25"/>
+      <c r="B167" s="20"/>
     </row>
     <row r="168" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="169" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B169" s="24" t="s">
+      <c r="B169" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B170" s="24" t="s">
+      <c r="B170" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="171" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B171" s="24" t="s">
+      <c r="B171" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B172" s="24" t="s">
+      <c r="B172" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B173" s="25"/>
+      <c r="B173" s="20"/>
     </row>
     <row r="174" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B176" s="25"/>
+      <c r="B176" s="20"/>
     </row>
     <row r="177" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B179" s="24" t="s">
+      <c r="B179" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B181" s="25"/>
+      <c r="B181" s="20"/>
     </row>
     <row r="182" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="19" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B184" s="24" t="s">
+      <c r="B184" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B185" s="24" t="s">
+      <c r="B185" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B186" s="25"/>
+      <c r="B186" s="20"/>
     </row>
     <row r="187" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B187" s="24" t="s">
+      <c r="B187" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B188" s="25"/>
+      <c r="B188" s="20"/>
     </row>
     <row r="189" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B189" s="24" t="s">
+      <c r="B189" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B190" s="25"/>
+      <c r="B190" s="20"/>
     </row>
     <row r="191" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B192" s="24" t="s">
+      <c r="B192" s="19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="193" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B193" s="24" t="s">
+      <c r="B193" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="195" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B195" s="24" t="s">
+      <c r="B195" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="196" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B196" s="25"/>
+      <c r="B196" s="20"/>
     </row>
     <row r="197" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B197" s="24" t="s">
+      <c r="B197" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="198" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B198" s="24" t="s">
+      <c r="B198" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="199" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B199" s="24" t="s">
+      <c r="B199" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="200" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="201" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="202" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B202" s="25"/>
+      <c r="B202" s="20"/>
     </row>
     <row r="203" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B203" s="24" t="s">
+      <c r="B203" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="204" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B204" s="24" t="s">
+      <c r="B204" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="205" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B205" s="25"/>
+      <c r="B205" s="20"/>
     </row>
     <row r="206" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B206" s="24" t="s">
+      <c r="B206" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="207" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B207" s="24" t="s">
+      <c r="B207" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="208" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B208" s="24" t="s">
+      <c r="B208" s="19" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/flywest講師用_資料/課題.xlsx
+++ b/flywest講師用_資料/課題.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/flywest講師用_資料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D6FE0B-64C7-0747-8622-B4D3BEAE12AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C72F745-EF70-F243-85C0-29903F86C49B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,11 @@
     <sheet name="電卓(生徒用)②" sheetId="9" r:id="rId15"/>
     <sheet name="電卓(生徒用)③" sheetId="10" r:id="rId16"/>
     <sheet name="電卓(生徒用)④" sheetId="15" r:id="rId17"/>
+    <sheet name="お問い合わ画面+SQL" sheetId="18" r:id="rId18"/>
+    <sheet name="キーボード" sheetId="19" r:id="rId19"/>
+    <sheet name="ピラミッド" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="356">
   <si>
     <t>課題</t>
     <rPh sb="0" eb="2">
@@ -2059,12 +2061,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">お問い合わせ画面で送信した際に複数送信を行い、SQLにデータを保存する機能を追加する </t>
+    <rPh sb="0" eb="2">
+      <t>ソウs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$to =  "$mail, 自分のメールアドレス";</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2163,6 +2175,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2363,7 +2383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2434,6 +2454,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3559,6 +3580,171 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38D0496-54EA-5848-8F79-8D74E94C449C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="1308100"/>
+          <a:ext cx="5880100" cy="3763815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962D6F06-2BFC-3249-95C1-A04A7D9E54E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549400" y="6451600"/>
+          <a:ext cx="5549900" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207772</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 下 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE77FA9-56A6-0347-80B6-B14E444BA365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3759200" y="5461000"/>
+          <a:ext cx="487172" cy="681228"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5542,6 +5728,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="C10:J10"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="K4:R4"/>
     <mergeCell ref="C5:J5"/>
@@ -5554,42 +5776,6 @@
     <mergeCell ref="K8:R8"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:R27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9905,6 +10091,728 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95C3C40-3F91-FD4F-88C1-D74481797AF0}">
+  <dimension ref="A3:C187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="17"/>
+    <col min="2" max="16384" width="8.83203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1">
+      <c r="A45" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1">
+      <c r="A47" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1">
+      <c r="A48" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1">
+      <c r="A49" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1">
+      <c r="A50" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="2" customFormat="1">
+      <c r="A51" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="2" customFormat="1">
+      <c r="A52" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1">
+      <c r="A53" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="2" customFormat="1">
+      <c r="A54" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="2" customFormat="1">
+      <c r="A55" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="2" customFormat="1">
+      <c r="A56" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="2" customFormat="1">
+      <c r="A57" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="2" customFormat="1">
+      <c r="A58" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="2" customFormat="1">
+      <c r="A59" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="2" customFormat="1">
+      <c r="A60" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="2" customFormat="1">
+      <c r="A61" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" s="34"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="C68" s="34"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="14"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="14"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="14"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="27"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="27"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="27"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="27"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="27"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="27"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="27"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6054C2-BAC5-5F43-8414-8BFD54D79758}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D42E1-BC3E-4189-84C0-7080999F8286}">
   <dimension ref="A2:F51"/>
@@ -10040,6 +10948,19 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3A2479-D4A8-494C-8A99-1DBD21BB9B24}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11666,7 +12587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E119C-749F-414C-9BD4-06D3C878D4D7}">
   <dimension ref="A3:C234"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
@@ -12967,7 +13888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7C362-435B-E848-A5E3-7BDB1C661BDF}">
   <dimension ref="A3:C187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
